--- a/data/trans_dic/P17G_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7888680855831601</v>
+        <v>0.793043134526861</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7716969460646981</v>
+        <v>0.7621939578799234</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.846200343772741</v>
+        <v>0.8289900052602639</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4999438617008038</v>
+        <v>0.4873664810460375</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8637036070384492</v>
+        <v>0.8584280057497156</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.905622853853824</v>
+        <v>0.9088754119029454</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.9236441521644301</v>
+        <v>0.9197621295128036</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8100416544282469</v>
+        <v>0.7916205674413879</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8569568248639204</v>
+        <v>0.8659537019640218</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.8760431598197915</v>
+        <v>0.8777909193406126</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.903626325254125</v>
+        <v>0.906530594206626</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.7803958027561387</v>
+        <v>0.7725404673489492</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9683809288054664</v>
+        <v>0.9657753710107722</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9645548523573229</v>
+        <v>0.9630577905488437</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9702783863147584</v>
+        <v>0.9697552041267914</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9757123357316971</v>
+        <v>0.9674674028940405</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9900252931064563</v>
+        <v>0.9898940772588316</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9901796085967335</v>
+        <v>0.9902362888434264</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9810523742561108</v>
+        <v>0.9803565971163006</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9552188777525584</v>
+        <v>0.9589780489913715</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.9681855666144832</v>
+        <v>0.9679040003401747</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.976080477708362</v>
+        <v>0.9758939060534569</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9664269279461077</v>
+        <v>0.9651419142095669</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.8275355346167047</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.8794733937709155</v>
+        <v>0.8794733937709154</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.8926791463413069</v>
@@ -821,7 +821,7 @@
         <v>0.9064236740969429</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.8644910559805634</v>
+        <v>0.8644910559805633</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.8691352778570806</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7153860955533987</v>
+        <v>0.6955637189036977</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8848468969778257</v>
+        <v>0.8767289633164068</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.714745809309095</v>
+        <v>0.7387748512536764</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7653449020099884</v>
+        <v>0.7682481676580158</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8308101096719953</v>
+        <v>0.8301449271369765</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8985951645598867</v>
+        <v>0.8952047277685755</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.851001577160424</v>
+        <v>0.8465257018761357</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7818788638354827</v>
+        <v>0.7858391573689244</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8191120585966818</v>
+        <v>0.8097046696221806</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.9099873180710252</v>
+        <v>0.9093116549291307</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.8259562265403051</v>
+        <v>0.8272582063962184</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.7977446880106935</v>
+        <v>0.8065796974091233</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8984712769044872</v>
+        <v>0.8948870806046234</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9733467303697573</v>
+        <v>0.9728525596425237</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8941984035756882</v>
+        <v>0.8968138358153428</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9525883971798589</v>
+        <v>0.9550241971954559</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9354484116687435</v>
+        <v>0.939507638973001</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9756907429486457</v>
+        <v>0.9767738252817073</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9495807313379874</v>
+        <v>0.9485840306929268</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9248602030071037</v>
+        <v>0.9230997105341365</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9100321984438442</v>
+        <v>0.9063237172945154</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.9700565762176714</v>
+        <v>0.9704448124250199</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9142111561274655</v>
+        <v>0.9130857942687824</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.9213685897433994</v>
+        <v>0.9221946811426105</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.9187804483250797</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.8365893134723092</v>
+        <v>0.8365893134723094</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.934622887017159</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.803928194403269</v>
+        <v>0.8147260334256685</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8610730250207125</v>
+        <v>0.8605555777019804</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8641129754286081</v>
+        <v>0.8641959985086305</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7275588206452992</v>
+        <v>0.732932430768125</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8890955626786988</v>
+        <v>0.8872307579445147</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8785782008859672</v>
+        <v>0.8747983472728423</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8676750625508585</v>
+        <v>0.8612533173205024</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8298557423793264</v>
+        <v>0.8264577771613074</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8805479226963536</v>
+        <v>0.8825315282629025</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.8896865785011456</v>
+        <v>0.8872157180822476</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.8784571528686096</v>
+        <v>0.8816148911652544</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.8135118316785701</v>
+        <v>0.812508385926068</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9411337966048774</v>
+        <v>0.9421200256222456</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9615731302167391</v>
+        <v>0.9576443532202359</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9597051019616764</v>
+        <v>0.961545566065193</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9133941010802228</v>
+        <v>0.9095756604251605</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9663815012243776</v>
+        <v>0.9675766307502155</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.966501526776547</v>
+        <v>0.966047104220595</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9512767887364111</v>
+        <v>0.9502307285408103</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.925229895724285</v>
+        <v>0.9190088228855282</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9477335748997112</v>
+        <v>0.949355148235012</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.9537288394293596</v>
+        <v>0.9531116222858785</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.9446274695278603</v>
+        <v>0.9444479231570134</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.903914873830965</v>
+        <v>0.9037706218222097</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.8765240903244382</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8797726571166904</v>
+        <v>0.8797726571166907</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.9235153371978047</v>
@@ -1093,7 +1093,7 @@
         <v>0.9289686885959476</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.8615242649557858</v>
+        <v>0.8615242649557856</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.8964288156826251</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.758211377967306</v>
+        <v>0.7541623458467253</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8126640054448127</v>
+        <v>0.8101263639350895</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8133208165185851</v>
+        <v>0.8114743859037128</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8162101371621874</v>
+        <v>0.8080881235045196</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8667570775598231</v>
+        <v>0.8704732840700321</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.9546635466076813</v>
+        <v>0.9556682994717086</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8846427295056787</v>
+        <v>0.8808976413958507</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8183055384391962</v>
+        <v>0.8173220660175626</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8541981998490064</v>
+        <v>0.852555520087948</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.9176314273922384</v>
+        <v>0.9136913391266388</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.8693080122001792</v>
+        <v>0.8677008596528364</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.8329669613621912</v>
+        <v>0.832142136186658</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9099253392224226</v>
+        <v>0.9115980967068996</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9445431830830803</v>
+        <v>0.9480200365654929</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9248420004800306</v>
+        <v>0.9283697569979438</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9296855240114414</v>
+        <v>0.925409674117939</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9548867081650628</v>
+        <v>0.9577904477351883</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.994992551553523</v>
+        <v>0.9950005521910424</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9600699263859611</v>
+        <v>0.9620891562662808</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8974678116968861</v>
+        <v>0.8988102653776116</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9328021087446949</v>
+        <v>0.9305286613500525</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.9726860379775761</v>
+        <v>0.9712812057826677</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.9336155509145051</v>
+        <v>0.9334400119393877</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.9010808329218235</v>
+        <v>0.8987273907002532</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.9192690318998021</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9268413640021406</v>
+        <v>0.9268413640021408</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.9264404846356807</v>
@@ -1229,7 +1229,7 @@
         <v>0.9360112418123405</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.9013585543320598</v>
+        <v>0.9013585543320596</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.9195607069136842</v>
@@ -1241,7 +1241,7 @@
         <v>0.9287975321098005</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.9134335519774375</v>
+        <v>0.9134335519774373</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8507635244873077</v>
+        <v>0.8449940144191168</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8557011051249364</v>
+        <v>0.8428515900899958</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8606237478475157</v>
+        <v>0.858351456557341</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8770284788622179</v>
+        <v>0.8772509573188827</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8762554263849973</v>
+        <v>0.8729546321571104</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.9263941079530781</v>
+        <v>0.9295902513187739</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8780133350067322</v>
+        <v>0.8808226919286394</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8606182154977098</v>
+        <v>0.8587402422407159</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.8817340637949317</v>
+        <v>0.8853393029853569</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.9124231007776835</v>
+        <v>0.9146948939809799</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.8897105142609585</v>
+        <v>0.8942604895188034</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.8845380491324204</v>
+        <v>0.8809962150237985</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9506467125165307</v>
+        <v>0.9550605822602106</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9666474013433251</v>
+        <v>0.9627115363251427</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9572341122472184</v>
+        <v>0.9570392364566772</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.959060289062919</v>
+        <v>0.9622748609670659</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9644426364929835</v>
+        <v>0.9628346995356026</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9879599561768624</v>
+        <v>0.9879143715779038</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9664463662740563</v>
+        <v>0.9697979453483784</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.93735229275884</v>
+        <v>0.9327201646726575</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9510456193819924</v>
+        <v>0.9484596587159846</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.9710767810672424</v>
+        <v>0.9713554094089739</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.9543279772494255</v>
+        <v>0.9557342056421504</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.9383062242949098</v>
+        <v>0.9366540075414018</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.9480183652919834</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.9425688695189199</v>
+        <v>0.94256886951892</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.9619005019026071</v>
@@ -1377,7 +1377,7 @@
         <v>0.9570087227477657</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.9246574563003594</v>
+        <v>0.9246574563003596</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.9088286425611468</v>
+        <v>0.9134131580554783</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8885039410983019</v>
+        <v>0.8883358913846047</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9243687195516433</v>
+        <v>0.9254810434479696</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.8461036828642945</v>
+        <v>0.8467705158013602</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9323625910346178</v>
+        <v>0.9328927535871162</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.9131757077881715</v>
+        <v>0.9132902021750968</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.8990291264285871</v>
+        <v>0.9033265225245101</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.9096886488249123</v>
+        <v>0.9047587616154686</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.9363799763858401</v>
+        <v>0.9363099756464734</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.9176862707716684</v>
+        <v>0.9214704550961859</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.9268809913612028</v>
+        <v>0.9274187632528166</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.8903019388819473</v>
+        <v>0.8921161902894919</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9792971558357618</v>
+        <v>0.9798154852424484</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9845236957821057</v>
+        <v>0.9843745774780752</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9920721548157858</v>
+        <v>0.9920995255851938</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9428705250964622</v>
+        <v>0.9402821916471588</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9882389461282585</v>
+        <v>0.9878677685179338</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9803450752573655</v>
+        <v>0.9805071277222157</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9756983936125493</v>
+        <v>0.9754352463333806</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.9665711963989215</v>
+        <v>0.9649595660364377</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.9787314637319491</v>
+        <v>0.9789319570945315</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.9726968448671766</v>
+        <v>0.9756268818426141</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.9765249369979715</v>
+        <v>0.9770834243064501</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.9465887272054792</v>
+        <v>0.9500175743429961</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.9772551995698489</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.9323611645884075</v>
+        <v>0.9323611645884073</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.9738564261657335</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.893731442738848</v>
+        <v>0.9006606091801442</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9562262779557014</v>
+        <v>0.957124047021061</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8921328800589284</v>
+        <v>0.8840251603735926</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8947200707475462</v>
+        <v>0.9032000512699172</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9399900244979624</v>
+        <v>0.9439785635589056</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.9297526457940746</v>
+        <v>0.9288684449393454</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9435492935245912</v>
+        <v>0.9399214967993862</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.8974714548247652</v>
+        <v>0.8933569907901441</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.9459687191994152</v>
+        <v>0.9430419216059722</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.94739868461128</v>
+        <v>0.9510792163900814</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.9383090197135727</v>
+        <v>0.9360137407360203</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.9117155874450766</v>
+        <v>0.9123861090187486</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9901801028147781</v>
+        <v>0.9903835836168789</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9825338621827114</v>
+        <v>0.9826717477260045</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9823076491069018</v>
+        <v>0.9827244966346325</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9936172309901496</v>
+        <v>0.9935813695024767</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.987507890009401</v>
+        <v>0.9845193507992812</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9927685804676848</v>
+        <v>0.992680187994641</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.9596199017565241</v>
+        <v>0.9596962623506179</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.990627584728361</v>
+        <v>0.9898905400854714</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.9890645798078703</v>
+        <v>0.9892370046258938</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.9856137259519271</v>
+        <v>0.9836080907326796</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.962657628498913</v>
+        <v>0.9620116978124739</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.9385739168882921</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.8987893859727295</v>
+        <v>0.8987893859727296</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.9255609098621114</v>
@@ -1649,7 +1649,7 @@
         <v>0.927716306584884</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.8971046864213119</v>
+        <v>0.897104686421312</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.8804698146954999</v>
+        <v>0.8797487139837572</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.910344554450699</v>
+        <v>0.9090654613891606</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8928107583081162</v>
+        <v>0.8904983171430891</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.8661708594258917</v>
+        <v>0.867901476092824</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.9208525527601105</v>
+        <v>0.920880321415508</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.9460039185220057</v>
+        <v>0.9456333259608901</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.9218481908009564</v>
+        <v>0.9208079793804357</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.8811835461371194</v>
+        <v>0.8779430478446073</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.9114757422732273</v>
+        <v>0.9129636946359428</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.9362223593425698</v>
+        <v>0.937644729713787</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.9156237564833581</v>
+        <v>0.915846107774912</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.8812035965012458</v>
+        <v>0.8810240313286459</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9278268039867597</v>
+        <v>0.9269419439024092</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9490563876502506</v>
+        <v>0.949592140563198</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9324512523318048</v>
+        <v>0.9310421632834623</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.9178605162390667</v>
+        <v>0.9177478982190281</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.9514194172536717</v>
+        <v>0.9524752625553232</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.9700121417515931</v>
+        <v>0.9702754502164166</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.9522301568357082</v>
+        <v>0.952406354685973</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.914613535190677</v>
+        <v>0.913989103178834</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.9382894552028648</v>
+        <v>0.938168914600453</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.9579819243738011</v>
+        <v>0.9581880812185458</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.9390787007966297</v>
+        <v>0.9397533258770207</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.9108826132926011</v>
+        <v>0.9110511662992901</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>44225</v>
+        <v>44459</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>44021</v>
+        <v>43479</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>56765</v>
+        <v>55610</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>14115</v>
+        <v>13760</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>73376</v>
+        <v>72928</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>88959</v>
+        <v>89279</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>86210</v>
+        <v>85848</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>52744</v>
+        <v>51545</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>120845</v>
+        <v>122113</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>136027</v>
+        <v>136298</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>144959</v>
+        <v>145425</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>72848</v>
+        <v>72114</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>54288</v>
+        <v>54142</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>55022</v>
+        <v>54937</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>65088</v>
+        <v>65053</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>28233</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>82892</v>
+        <v>82191</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>97250</v>
+        <v>97237</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>92420</v>
+        <v>92426</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>63879</v>
+        <v>63834</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>134701</v>
+        <v>135231</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>150334</v>
+        <v>150290</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>156582</v>
+        <v>156552</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>90213</v>
+        <v>90093</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>52115</v>
+        <v>50671</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>88719</v>
+        <v>87905</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>64494</v>
+        <v>66663</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>62568</v>
+        <v>62806</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>125095</v>
+        <v>124995</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>142328</v>
+        <v>141791</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>132072</v>
+        <v>131377</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>86620</v>
+        <v>87058</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>183006</v>
+        <v>180904</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>235372</v>
+        <v>235197</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>202714</v>
+        <v>203034</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>153595</v>
+        <v>155296</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>65453</v>
+        <v>65192</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>97593</v>
+        <v>97543</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>80687</v>
+        <v>80923</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>77876</v>
+        <v>78075</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>140850</v>
+        <v>141462</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>154539</v>
+        <v>154710</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>147371</v>
+        <v>147216</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>102460</v>
+        <v>102265</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>203319</v>
+        <v>202491</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>250909</v>
+        <v>251009</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>224375</v>
+        <v>224099</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>177397</v>
+        <v>177556</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>75408</v>
+        <v>76421</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>108140</v>
+        <v>108075</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>126997</v>
+        <v>127009</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>67015</v>
+        <v>67510</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>165046</v>
+        <v>164700</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>167603</v>
+        <v>166882</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>147631</v>
+        <v>146538</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>111645</v>
+        <v>111188</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>246055</v>
+        <v>246609</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>281455</v>
+        <v>280673</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>278570</v>
+        <v>279572</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>184379</v>
+        <v>184152</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>88278</v>
+        <v>88371</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>120761</v>
+        <v>120268</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>141046</v>
+        <v>141316</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>84133</v>
+        <v>83781</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>179393</v>
+        <v>179615</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>184376</v>
+        <v>184289</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>161855</v>
+        <v>161677</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>124477</v>
+        <v>123640</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>264829</v>
+        <v>265282</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>301715</v>
+        <v>301520</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>299554</v>
+        <v>299497</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>204869</v>
+        <v>204836</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>60407</v>
+        <v>60084</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>90659</v>
+        <v>90376</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>131834</v>
+        <v>131534</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>114935</v>
+        <v>113792</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>127815</v>
+        <v>128363</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>182765</v>
+        <v>182957</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>157976</v>
+        <v>157307</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>146101</v>
+        <v>145925</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>194018</v>
+        <v>193645</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>278044</v>
+        <v>276850</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>296146</v>
+        <v>295599</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>266014</v>
+        <v>265750</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>72494</v>
+        <v>72627</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>105371</v>
+        <v>105759</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>149910</v>
+        <v>150482</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>130915</v>
+        <v>130312</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>140811</v>
+        <v>141240</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>190485</v>
+        <v>190487</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>171445</v>
+        <v>171806</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>160235</v>
+        <v>160474</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>211872</v>
+        <v>211356</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>294726</v>
+        <v>294300</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>318054</v>
+        <v>317994</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>287766</v>
+        <v>287015</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>107392</v>
+        <v>106664</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>109449</v>
+        <v>107806</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>123113</v>
+        <v>122788</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>124645</v>
+        <v>124677</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>131654</v>
+        <v>131158</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>147861</v>
+        <v>148371</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>165904</v>
+        <v>166435</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>135813</v>
+        <v>135517</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>243778</v>
+        <v>244775</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>262335</v>
+        <v>262989</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>295388</v>
+        <v>296899</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>265300</v>
+        <v>264238</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>120000</v>
+        <v>120557</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>123640</v>
+        <v>123137</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>136933</v>
+        <v>136905</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>136304</v>
+        <v>136760</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>144904</v>
+        <v>144662</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>157687</v>
+        <v>157680</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>182614</v>
+        <v>183247</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>147923</v>
+        <v>147192</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>262941</v>
+        <v>262226</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>279199</v>
+        <v>279279</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>316842</v>
+        <v>317309</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>281427</v>
+        <v>280932</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>121787</v>
+        <v>122401</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>119280</v>
+        <v>119257</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>118560</v>
+        <v>118702</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>97899</v>
+        <v>97976</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>150425</v>
+        <v>150510</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>137838</v>
+        <v>137856</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>166082</v>
+        <v>166876</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>123064</v>
+        <v>122398</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>276551</v>
+        <v>276531</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>261716</v>
+        <v>262795</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>290109</v>
+        <v>290277</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>223454</v>
+        <v>223910</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>131230</v>
+        <v>131299</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>132170</v>
+        <v>132150</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>127243</v>
+        <v>127247</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>109096</v>
+        <v>108796</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>159440</v>
+        <v>159380</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>147977</v>
+        <v>148002</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>180246</v>
+        <v>180197</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>130760</v>
+        <v>130542</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>289060</v>
+        <v>289119</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>277404</v>
+        <v>278240</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>305647</v>
+        <v>305822</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>237581</v>
+        <v>238442</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>83291</v>
+        <v>83937</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>107326</v>
+        <v>107427</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>94678</v>
+        <v>93817</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>80423</v>
+        <v>81185</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>158072</v>
+        <v>158742</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>173995</v>
+        <v>173829</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>161839</v>
+        <v>161217</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>129733</v>
+        <v>129138</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>247236</v>
+        <v>246472</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>283632</v>
+        <v>284734</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>260518</v>
+        <v>259880</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>213743</v>
+        <v>213900</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>92280</v>
+        <v>92299</v>
       </c>
       <c r="D31" s="6" t="n">
         <v>112239</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>104271</v>
+        <v>104286</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>88296</v>
+        <v>88333</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>167090</v>
+        <v>167084</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>184803</v>
+        <v>184244</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>170282</v>
+        <v>170266</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>138717</v>
+        <v>138728</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>258908</v>
+        <v>258716</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>296106</v>
+        <v>296158</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>273652</v>
+        <v>273095</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>225685</v>
+        <v>225534</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>577420</v>
+        <v>576947</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>699917</v>
+        <v>698933</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>753365</v>
+        <v>751414</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>598198</v>
+        <v>599394</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>965394</v>
+        <v>965423</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1075154</v>
+        <v>1074733</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1053179</v>
+        <v>1051991</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>816522</v>
+        <v>813520</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1553318</v>
+        <v>1555854</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1783850</v>
+        <v>1786560</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1818683</v>
+        <v>1819125</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1425121</v>
+        <v>1424831</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>608477</v>
+        <v>607897</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>729680</v>
+        <v>730092</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>786814</v>
+        <v>785625</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>633897</v>
+        <v>633819</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>997440</v>
+        <v>998546</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1102440</v>
+        <v>1102739</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>1087890</v>
+        <v>1088091</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>847499</v>
+        <v>846921</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1599013</v>
+        <v>1598808</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1825310</v>
+        <v>1825703</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1865271</v>
+        <v>1866611</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1473119</v>
+        <v>1473392</v>
       </c>
     </row>
     <row r="36">
